--- a/combinations.xlsx
+++ b/combinations.xlsx
@@ -9,15 +9,13 @@
   <sheets>
     <sheet name="Combination 1" sheetId="1" r:id="rId1"/>
     <sheet name="Combination 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Combination 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Combination 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="69">
   <si>
     <t>LUNES</t>
   </si>
@@ -220,16 +218,10 @@
     <t>22:00</t>
   </si>
   <si>
-    <t>Biologia 2</t>
-  </si>
-  <si>
-    <t>Proyectiva 3</t>
-  </si>
-  <si>
-    <t>Proyectiva 4</t>
-  </si>
-  <si>
-    <t>Biologia 3</t>
+    <t xml:space="preserve"> Psicología Educacional  1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Psicología Educacional  2</t>
   </si>
 </sst>
 </file>
@@ -253,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,25 +260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF17BECF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF1F77B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7F0E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9467BD"/>
+        <fgColor rgb="FF17BECF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -341,8 +321,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,11 +621,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -777,12 +756,8 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
@@ -792,12 +767,8 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
@@ -807,12 +778,8 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
@@ -822,12 +789,8 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
@@ -837,12 +800,8 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
@@ -852,12 +811,8 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
@@ -868,99 +823,73 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
@@ -1134,9 +1063,7 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
@@ -1147,9 +1074,7 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
@@ -1160,9 +1085,7 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
@@ -1173,9 +1096,7 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
@@ -1186,9 +1107,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
@@ -1199,9 +1118,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
@@ -1220,7 +1137,9 @@
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1231,7 +1150,9 @@
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1242,7 +1163,9 @@
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1253,7 +1176,9 @@
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1264,7 +1189,9 @@
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1275,7 +1202,9 @@
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1297,7 +1226,9 @@
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1308,7 +1239,9 @@
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1319,7 +1252,9 @@
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1330,7 +1265,9 @@
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -1341,7 +1278,9 @@
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -1352,7 +1291,9 @@
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1363,7 +1304,9 @@
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -1374,7 +1317,9 @@
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -1385,7 +1330,9 @@
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -1416,11 +1363,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1474,7 +1421,9 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
@@ -1485,7 +1434,9 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
@@ -1496,7 +1447,9 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
@@ -1507,7 +1460,9 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
@@ -1518,7 +1473,9 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
@@ -1529,7 +1486,9 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
@@ -1540,7 +1499,9 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
@@ -1551,7 +1512,9 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
@@ -1562,7 +1525,9 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
@@ -1573,7 +1538,9 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
@@ -1584,7 +1551,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
@@ -1595,7 +1564,9 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
@@ -1606,7 +1577,9 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
@@ -1625,12 +1598,12 @@
         <v>22</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
@@ -1638,12 +1611,12 @@
         <v>23</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
@@ -1651,12 +1624,12 @@
         <v>24</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
@@ -1664,12 +1637,12 @@
         <v>25</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
@@ -1677,12 +1650,12 @@
         <v>26</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
@@ -1690,12 +1663,12 @@
         <v>27</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
@@ -1716,9 +1689,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
@@ -1729,9 +1700,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
@@ -1742,9 +1711,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
@@ -1755,9 +1722,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
@@ -1768,9 +1733,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
@@ -1781,9 +1744,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
@@ -1879,14 +1840,10 @@
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
@@ -1894,14 +1851,10 @@
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
@@ -1909,14 +1862,10 @@
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
@@ -1924,14 +1873,10 @@
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
@@ -1939,14 +1884,10 @@
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
@@ -1954,14 +1895,10 @@
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
@@ -1969,9 +1906,7 @@
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1982,9 +1917,7 @@
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1995,9 +1928,7 @@
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2008,9 +1939,7 @@
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2021,9 +1950,7 @@
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2034,9 +1961,7 @@
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2047,9 +1972,7 @@
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2180,1551 +2103,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/combinations.xlsx
+++ b/combinations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
   <si>
     <t>LUNES</t>
   </si>
@@ -218,10 +218,24 @@
     <t>22:00</t>
   </si>
   <si>
-    <t xml:space="preserve"> Psicología Educacional  1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Psicología Educacional  2</t>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>22:45</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teoría y Técnica de Exploración 
+y Diagnóstico Psicológico Módulo I  3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teoría y Técnica de Exploración 
+y Diagnóstico Psicológico Módulo I  8</t>
   </si>
 </sst>
 </file>
@@ -260,13 +274,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1F77B4"/>
+        <fgColor rgb="FF2CA02C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF17BECF"/>
+        <fgColor rgb="FF1F77B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,13 +629,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
@@ -1138,7 +1152,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1151,7 +1165,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1164,7 +1178,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1177,7 +1191,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1190,7 +1204,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1203,7 +1217,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1227,7 +1241,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1240,7 +1254,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1253,7 +1267,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1266,7 +1280,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1279,7 +1293,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1292,7 +1306,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1305,7 +1319,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1318,7 +1332,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1331,7 +1345,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1343,12 +1357,64 @@
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1357,17 +1423,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1421,9 +1487,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
@@ -1434,9 +1498,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
@@ -1447,9 +1509,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
@@ -1460,9 +1520,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
@@ -1473,9 +1531,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
@@ -1486,9 +1542,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
@@ -1499,9 +1553,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
@@ -1512,9 +1564,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
@@ -1525,9 +1575,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
@@ -1538,9 +1586,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
@@ -1551,9 +1597,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
@@ -1564,9 +1608,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
@@ -1577,9 +1619,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
@@ -1601,9 +1641,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
@@ -1614,9 +1652,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
@@ -1627,9 +1663,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
@@ -1640,9 +1674,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
@@ -1653,9 +1685,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
@@ -1666,9 +1696,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
@@ -1917,7 +1945,9 @@
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1928,7 +1958,9 @@
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1939,7 +1971,9 @@
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1950,7 +1984,9 @@
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1961,7 +1997,9 @@
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1972,7 +2010,9 @@
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1994,7 +2034,9 @@
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2005,7 +2047,9 @@
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2016,7 +2060,9 @@
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2027,7 +2073,9 @@
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2038,7 +2086,9 @@
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2049,7 +2099,9 @@
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2060,7 +2112,9 @@
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2071,7 +2125,9 @@
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2082,7 +2138,9 @@
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2093,13 +2151,65 @@
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
